--- a/mementos/converter.xlsx
+++ b/mementos/converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kklau\OneDrive\Tagatame\Repo\mementos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{91E630C6-EFF2-47F0-B4EE-F4E92BE9EB9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{538F6AC0-2D23-4D7F-9F3B-5E71915CE5A4}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{91E630C6-EFF2-47F0-B4EE-F4E92BE9EB9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AB4DFB51-4680-4864-8588-AFE61BF5C23A}"/>
   <bookViews>
-    <workbookView xWindow="4988" yWindow="3606" windowWidth="11497" windowHeight="8237" xr2:uid="{212F7C38-DB7E-4EC8-9CC4-51F0B798BB05}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{212F7C38-DB7E-4EC8-9CC4-51F0B798BB05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>HP60%アップ 魔攻30%アップ 回避率5%アップ &lt;強欲&gt;特効30%アップ &lt;色欲&gt;特効30%アップ</t>
+    <t>HP40%アップ 物攻30%アップ 器用さ20%アップ 素早さ10%アップ &lt;強欲&gt;特効30%アップ &lt;色欲&gt;特効30%アップ</t>
   </si>
 </sst>
 </file>
@@ -402,13 +402,13 @@
     <row r="2" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(A1,"アップ",""),"％","%")</f>
-        <v>HP60% 魔攻30% 回避率5% &lt;強欲&gt;特効30% &lt;色欲&gt;特効30%</v>
+        <v>HP40% 物攻30% 器用さ20% 素早さ10% &lt;強欲&gt;特効30% &lt;色欲&gt;特効30%</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(A2,"10%","+10%"),"20%","+20%"),"30%","+30%"),"40%","+40%"),"50%","+50%"),"60%","+60%"),"70%","+70%"),"5%","+5%"),"1+5%","+15%")</f>
-        <v>HP+60% 魔攻+30% 回避率+5% &lt;強欲&gt;特効+30% &lt;色欲&gt;特効+30%</v>
+        <v>HP+40% 物攻+30% 器用さ+20% 素早さ+10% &lt;強欲&gt;特効+30% &lt;色欲&gt;特効+30%</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
